--- a/data/trans_orig/P13A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB9627C-7AE6-45AA-B079-E18A58E6EB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3AB6069-96AA-4786-9CC1-8871211CCB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28656757-5C21-4341-845C-97A7063CEBB5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F5868D9-746A-4C50-AB8E-2EAB200A83E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
   <si>
     <t>Población según días que sufre dolor de cabeza al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>5,37%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>De 8 a 14 días al mes</t>
@@ -104,28 +104,28 @@
     <t>2,38%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>De 1 a 7 días al mes</t>
@@ -134,28 +134,28 @@
     <t>9,42%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>Ningún día o menos de un dia al mes</t>
@@ -164,667 +164,664 @@
     <t>88,2%</t>
   </si>
   <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>65,63%</t>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>79,22%</t>
   </si>
   <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>3,6%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>14,78%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>80,04%</t>
   </si>
   <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1239,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A992887-0AB7-4F19-BD5D-E607E79A8073}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99153D9-1BE5-4C28-9AD5-1D07C09B09F2}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1910,10 +1907,10 @@
         <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1925,13 @@
         <v>13740</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1943,13 +1940,13 @@
         <v>29994</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>60</v>
@@ -1958,13 +1955,13 @@
         <v>43734</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2027,13 @@
         <v>439466</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>535</v>
@@ -2045,13 +2042,13 @@
         <v>371147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>969</v>
@@ -2060,13 +2057,13 @@
         <v>810612</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,7 +2105,7 @@
         <v>1385</v>
       </c>
       <c r="N18" s="7">
-        <v>1134737</v>
+        <v>1134736</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2122,7 +2119,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2134,13 +2131,13 @@
         <v>7721</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -2149,13 +2146,13 @@
         <v>48029</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -2164,13 +2161,13 @@
         <v>55750</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2182,13 @@
         <v>26280</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -2200,13 +2197,13 @@
         <v>48338</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -2215,13 +2212,13 @@
         <v>74619</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2233,13 @@
         <v>145889</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>326</v>
@@ -2251,13 +2248,13 @@
         <v>211078</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>459</v>
@@ -2266,13 +2263,13 @@
         <v>356967</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2284,13 @@
         <v>542977</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>668</v>
@@ -2302,13 +2299,13 @@
         <v>437410</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>1162</v>
@@ -2317,13 +2314,13 @@
         <v>980388</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,7 +2376,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2391,13 +2388,13 @@
         <v>10590</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -2424,10 +2421,10 @@
         <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2439,13 @@
         <v>15889</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -2457,13 +2454,13 @@
         <v>28813</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -2472,13 +2469,13 @@
         <v>44702</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,7 +2526,7 @@
         <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2541,13 @@
         <v>471489</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>636</v>
@@ -2559,13 +2556,13 @@
         <v>387247</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>1160</v>
@@ -2574,13 +2571,13 @@
         <v>858736</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,7 +2633,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2648,13 +2645,13 @@
         <v>9062</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>67</v>
@@ -2666,10 +2663,10 @@
         <v>24</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>81</v>
@@ -2678,13 +2675,13 @@
         <v>48659</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2711,13 @@
         <v>47306</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>115</v>
@@ -2729,13 +2726,13 @@
         <v>59037</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2747,13 @@
         <v>108184</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>419</v>
@@ -2765,13 +2762,13 @@
         <v>332286</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>578</v>
@@ -2780,13 +2777,13 @@
         <v>440470</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2798,13 @@
         <v>563848</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>1119</v>
@@ -2816,13 +2813,13 @@
         <v>604140</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>1948</v>
@@ -2831,13 +2828,13 @@
         <v>1167987</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2902,13 @@
         <v>38855</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>229</v>
@@ -2920,13 +2917,13 @@
         <v>168246</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>138</v>
       </c>
       <c r="M34" s="7">
         <v>271</v>
@@ -2935,13 +2932,13 @@
         <v>207101</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2953,13 @@
         <v>86055</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>311</v>
@@ -2971,13 +2968,13 @@
         <v>202061</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M35" s="7">
         <v>401</v>
@@ -2986,13 +2983,13 @@
         <v>288116</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,7 +3010,7 @@
         <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="H36" s="7">
         <v>1389</v>
@@ -3022,13 +3019,13 @@
         <v>1051167</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>1941</v>
@@ -3037,13 +3034,13 @@
         <v>1599544</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3055,13 @@
         <v>2699497</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>3411</v>
@@ -3073,13 +3070,13 @@
         <v>2371206</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>6088</v>
@@ -3088,13 +3085,13 @@
         <v>5070703</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,7 +3147,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3AB6069-96AA-4786-9CC1-8871211CCB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0742801-F770-45DD-8C0B-FB0C1701A600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F5868D9-746A-4C50-AB8E-2EAB200A83E3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4561854B-8309-4217-BDC4-721B17A0F991}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99153D9-1BE5-4C28-9AD5-1D07C09B09F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B798B8-3033-4C14-A91D-A08024024DEA}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0742801-F770-45DD-8C0B-FB0C1701A600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D26D13-B338-4426-9711-5E3719E023AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4561854B-8309-4217-BDC4-721B17A0F991}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDD90787-2B14-4719-B6B8-84822394F37E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
   <si>
     <t>Población según días que sufre dolor de cabeza al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -83,745 +83,748 @@
     <t>5,37%</t>
   </si>
   <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>De 8 a 14 días al mes</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>De 1 a 7 días al mes</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>Ningún día o menos de un dia al mes</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>De 8 a 14 días al mes</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>De 1 a 7 días al mes</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>Ningún día o menos de un dia al mes</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
   </si>
   <si>
     <t>20,72%</t>
   </si>
   <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
+    <t>26,56%</t>
   </si>
   <si>
     <t>80,04%</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B798B8-3033-4C14-A91D-A08024024DEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1147EAD6-B41D-4130-BC5A-BF2D5C736915}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1907,10 +1910,10 @@
         <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1928,13 @@
         <v>13740</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1940,13 +1943,13 @@
         <v>29994</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>60</v>
@@ -1955,13 +1958,13 @@
         <v>43734</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,13 +2030,13 @@
         <v>439466</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>535</v>
@@ -2042,13 +2045,13 @@
         <v>371147</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>969</v>
@@ -2057,13 +2060,13 @@
         <v>810612</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,7 +2108,7 @@
         <v>1385</v>
       </c>
       <c r="N18" s="7">
-        <v>1134736</v>
+        <v>1134737</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2119,7 +2122,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2131,13 +2134,13 @@
         <v>7721</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -2146,13 +2149,13 @@
         <v>48029</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -2161,13 +2164,13 @@
         <v>55750</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2185,13 @@
         <v>26280</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -2197,13 +2200,13 @@
         <v>48338</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -2212,13 +2215,13 @@
         <v>74619</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2236,13 @@
         <v>145889</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>326</v>
@@ -2248,13 +2251,13 @@
         <v>211078</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>459</v>
@@ -2263,13 +2266,13 @@
         <v>356967</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2287,13 @@
         <v>542977</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>668</v>
@@ -2299,13 +2302,13 @@
         <v>437410</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>1162</v>
@@ -2314,13 +2317,13 @@
         <v>980388</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,7 +2379,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2388,13 +2391,13 @@
         <v>10590</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -2421,10 +2424,10 @@
         <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2442,13 @@
         <v>15889</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -2454,13 +2457,13 @@
         <v>28813</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -2469,13 +2472,13 @@
         <v>44702</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,7 +2529,7 @@
         <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2544,13 @@
         <v>471489</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>636</v>
@@ -2556,13 +2559,13 @@
         <v>387247</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>1160</v>
@@ -2571,13 +2574,13 @@
         <v>858736</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,7 +2636,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2645,13 +2648,13 @@
         <v>9062</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>67</v>
@@ -2663,10 +2666,10 @@
         <v>24</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>81</v>
@@ -2675,13 +2678,13 @@
         <v>48659</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2714,13 @@
         <v>47306</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>115</v>
@@ -2726,13 +2729,13 @@
         <v>59037</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2750,13 @@
         <v>108184</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>419</v>
@@ -2762,13 +2765,13 @@
         <v>332286</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>578</v>
@@ -2777,13 +2780,13 @@
         <v>440470</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2801,13 @@
         <v>563848</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>1119</v>
@@ -2813,13 +2816,13 @@
         <v>604140</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>1948</v>
@@ -2828,13 +2831,13 @@
         <v>1167987</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2905,13 @@
         <v>38855</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>229</v>
@@ -2917,13 +2920,13 @@
         <v>168246</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>271</v>
@@ -2932,13 +2935,13 @@
         <v>207101</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2956,13 @@
         <v>86055</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>311</v>
@@ -2968,13 +2971,13 @@
         <v>202061</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="M35" s="7">
         <v>401</v>
@@ -2983,13 +2986,13 @@
         <v>288116</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,7 +3013,7 @@
         <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>1389</v>
@@ -3019,13 +3022,13 @@
         <v>1051167</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>1941</v>
@@ -3034,13 +3037,13 @@
         <v>1599544</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3058,13 @@
         <v>2699497</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>3411</v>
@@ -3070,13 +3073,13 @@
         <v>2371206</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>6088</v>
@@ -3085,13 +3088,13 @@
         <v>5070703</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,7 +3150,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D26D13-B338-4426-9711-5E3719E023AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ED3DD0D-2634-447E-813F-AD3DAE9FFED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDD90787-2B14-4719-B6B8-84822394F37E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8E78CE73-06E1-4CA2-A959-C3DEAFDE9B09}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="298">
   <si>
     <t>Población según días que sufre dolor de cabeza al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>15 ó más días al mes</t>
@@ -80,751 +80,853 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>De 8 a 14 días al mes</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>De 1 a 7 días al mes</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>Ningún día o menos de un dia al mes</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>De 8 a 14 días al mes</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>De 1 a 7 días al mes</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>Ningún día o menos de un dia al mes</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1239,8 +1341,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1147EAD6-B41D-4130-BC5A-BF2D5C736915}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3127D7A6-E7AD-4618-AED3-2614EA25E05E}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1375,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>18979</v>
+        <v>16480</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1390,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>18979</v>
+        <v>16480</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1411,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>8990</v>
+        <v>9482</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1426,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>13678</v>
+        <v>12528</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1441,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>22668</v>
+        <v>22010</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1462,7 +1564,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>35567</v>
+        <v>37204</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1477,7 +1579,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="7">
-        <v>62184</v>
+        <v>60395</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1492,7 +1594,7 @@
         <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>97751</v>
+        <v>97600</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1513,7 +1615,7 @@
         <v>152</v>
       </c>
       <c r="D7" s="7">
-        <v>333122</v>
+        <v>353301</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1528,7 +1630,7 @@
         <v>152</v>
       </c>
       <c r="I7" s="7">
-        <v>258267</v>
+        <v>222050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1543,7 +1645,7 @@
         <v>304</v>
       </c>
       <c r="N7" s="7">
-        <v>591388</v>
+        <v>575351</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1564,7 +1666,7 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1579,7 +1681,7 @@
         <v>205</v>
       </c>
       <c r="I8" s="7">
-        <v>353108</v>
+        <v>311453</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1594,7 +1696,7 @@
         <v>377</v>
       </c>
       <c r="N8" s="7">
-        <v>730786</v>
+        <v>711440</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1617,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>4520</v>
+        <v>4434</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1632,7 +1734,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>9715</v>
+        <v>8819</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1647,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="N9" s="7">
-        <v>14234</v>
+        <v>13253</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1668,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>9423</v>
+        <v>9514</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1683,7 +1785,7 @@
         <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>33933</v>
+        <v>31731</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1698,7 +1800,7 @@
         <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>43356</v>
+        <v>41246</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1719,7 +1821,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="7">
-        <v>65858</v>
+        <v>67619</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1734,7 +1836,7 @@
         <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>141775</v>
+        <v>189327</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1749,7 +1851,7 @@
         <v>169</v>
       </c>
       <c r="N11" s="7">
-        <v>207632</v>
+        <v>256945</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1770,7 +1872,7 @@
         <v>244</v>
       </c>
       <c r="D12" s="7">
-        <v>348596</v>
+        <v>341980</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1785,7 +1887,7 @@
         <v>301</v>
       </c>
       <c r="I12" s="7">
-        <v>312996</v>
+        <v>281468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1800,7 +1902,7 @@
         <v>545</v>
       </c>
       <c r="N12" s="7">
-        <v>661592</v>
+        <v>623448</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1821,7 +1923,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1836,7 +1938,7 @@
         <v>459</v>
       </c>
       <c r="I13" s="7">
-        <v>498418</v>
+        <v>511345</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1851,7 +1953,7 @@
         <v>761</v>
       </c>
       <c r="N13" s="7">
-        <v>926814</v>
+        <v>934892</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1874,7 +1976,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>6962</v>
+        <v>6979</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1889,7 +1991,7 @@
         <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>18702</v>
+        <v>17660</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1904,16 +2006,16 @@
         <v>32</v>
       </c>
       <c r="N14" s="7">
-        <v>25664</v>
+        <v>24639</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,46 +2027,46 @@
         <v>13</v>
       </c>
       <c r="D15" s="7">
-        <v>13740</v>
+        <v>13974</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
       </c>
       <c r="I15" s="7">
-        <v>29994</v>
+        <v>28508</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>60</v>
       </c>
       <c r="N15" s="7">
-        <v>43734</v>
+        <v>42482</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,46 +2078,46 @@
         <v>91</v>
       </c>
       <c r="D16" s="7">
-        <v>94560</v>
+        <v>92500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>233</v>
       </c>
       <c r="I16" s="7">
-        <v>160166</v>
+        <v>151228</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>324</v>
       </c>
       <c r="N16" s="7">
-        <v>254726</v>
+        <v>243727</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,46 +2129,46 @@
         <v>434</v>
       </c>
       <c r="D17" s="7">
-        <v>439466</v>
+        <v>420523</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>535</v>
       </c>
       <c r="I17" s="7">
-        <v>371147</v>
+        <v>342032</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>969</v>
       </c>
       <c r="N17" s="7">
-        <v>810612</v>
+        <v>762555</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,7 +2180,7 @@
         <v>543</v>
       </c>
       <c r="D18" s="7">
-        <v>554729</v>
+        <v>533975</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2093,7 +2195,7 @@
         <v>842</v>
       </c>
       <c r="I18" s="7">
-        <v>580008</v>
+        <v>539428</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2108,7 +2210,7 @@
         <v>1385</v>
       </c>
       <c r="N18" s="7">
-        <v>1134737</v>
+        <v>1073403</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2122,7 +2224,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2131,46 +2233,46 @@
         <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>7721</v>
+        <v>7234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
       </c>
       <c r="I19" s="7">
-        <v>48029</v>
+        <v>43025</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
       </c>
       <c r="N19" s="7">
-        <v>55750</v>
+        <v>50259</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,46 +2284,46 @@
         <v>30</v>
       </c>
       <c r="D20" s="7">
-        <v>26280</v>
+        <v>26006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
       </c>
       <c r="I20" s="7">
-        <v>48338</v>
+        <v>45629</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
       </c>
       <c r="N20" s="7">
-        <v>74619</v>
+        <v>71635</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,46 +2335,46 @@
         <v>133</v>
       </c>
       <c r="D21" s="7">
-        <v>145889</v>
+        <v>145411</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>326</v>
       </c>
       <c r="I21" s="7">
-        <v>211078</v>
+        <v>198357</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>459</v>
       </c>
       <c r="N21" s="7">
-        <v>356967</v>
+        <v>343767</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,46 +2386,46 @@
         <v>494</v>
       </c>
       <c r="D22" s="7">
-        <v>542977</v>
+        <v>708060</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>668</v>
       </c>
       <c r="I22" s="7">
-        <v>437410</v>
+        <v>423683</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>1162</v>
       </c>
       <c r="N22" s="7">
-        <v>980388</v>
+        <v>1131743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,7 +2437,7 @@
         <v>664</v>
       </c>
       <c r="D23" s="7">
-        <v>722868</v>
+        <v>886711</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2350,7 +2452,7 @@
         <v>1137</v>
       </c>
       <c r="I23" s="7">
-        <v>744855</v>
+        <v>710694</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2365,7 +2467,7 @@
         <v>1801</v>
       </c>
       <c r="N23" s="7">
-        <v>1467724</v>
+        <v>1597404</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2379,7 +2481,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2388,22 +2490,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>10590</v>
+        <v>10183</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
       </c>
       <c r="I24" s="7">
-        <v>33224</v>
+        <v>30418</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>164</v>
@@ -2418,16 +2520,16 @@
         <v>66</v>
       </c>
       <c r="N24" s="7">
-        <v>43814</v>
+        <v>40601</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,43 +2541,43 @@
         <v>19</v>
       </c>
       <c r="D25" s="7">
-        <v>15889</v>
+        <v>14838</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
       </c>
       <c r="I25" s="7">
-        <v>28813</v>
+        <v>26811</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
       </c>
       <c r="N25" s="7">
-        <v>44702</v>
+        <v>41648</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>177</v>
@@ -2490,7 +2592,7 @@
         <v>104</v>
       </c>
       <c r="D26" s="7">
-        <v>98320</v>
+        <v>93775</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>178</v>
@@ -2505,7 +2607,7 @@
         <v>255</v>
       </c>
       <c r="I26" s="7">
-        <v>143678</v>
+        <v>134072</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>181</v>
@@ -2520,7 +2622,7 @@
         <v>359</v>
       </c>
       <c r="N26" s="7">
-        <v>241998</v>
+        <v>227847</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>184</v>
@@ -2529,7 +2631,7 @@
         <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2643,13 @@
         <v>524</v>
       </c>
       <c r="D27" s="7">
-        <v>471489</v>
+        <v>438805</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>188</v>
@@ -2556,7 +2658,7 @@
         <v>636</v>
       </c>
       <c r="I27" s="7">
-        <v>387247</v>
+        <v>352942</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>189</v>
@@ -2571,7 +2673,7 @@
         <v>1160</v>
       </c>
       <c r="N27" s="7">
-        <v>858736</v>
+        <v>791748</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>192</v>
@@ -2592,7 +2694,7 @@
         <v>659</v>
       </c>
       <c r="D28" s="7">
-        <v>596288</v>
+        <v>557601</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2607,7 +2709,7 @@
         <v>996</v>
       </c>
       <c r="I28" s="7">
-        <v>592962</v>
+        <v>544243</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2622,7 +2724,7 @@
         <v>1655</v>
       </c>
       <c r="N28" s="7">
-        <v>1189249</v>
+        <v>1101844</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2642,10 +2744,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>9062</v>
+        <v>3946</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>196</v>
@@ -2657,34 +2759,34 @@
         <v>198</v>
       </c>
       <c r="H29" s="7">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="I29" s="7">
-        <v>39597</v>
+        <v>16407</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="N29" s="7">
-        <v>48659</v>
+        <v>20353</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,49 +2795,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>11731</v>
+        <v>5982</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="I30" s="7">
-        <v>47306</v>
+        <v>19359</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="M30" s="7">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="N30" s="7">
-        <v>59037</v>
+        <v>25340</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,49 +2846,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="D31" s="7">
-        <v>108184</v>
+        <v>53469</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
-        <v>419</v>
+        <v>183</v>
       </c>
       <c r="I31" s="7">
-        <v>332286</v>
+        <v>293579</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
-        <v>578</v>
+        <v>266</v>
       </c>
       <c r="N31" s="7">
-        <v>440470</v>
+        <v>347048</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,49 +2897,49 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>829</v>
+        <v>467</v>
       </c>
       <c r="D32" s="7">
-        <v>563848</v>
+        <v>301772</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
-        <v>1119</v>
+        <v>569</v>
       </c>
       <c r="I32" s="7">
-        <v>604140</v>
+        <v>277906</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
-        <v>1948</v>
+        <v>1036</v>
       </c>
       <c r="N32" s="7">
-        <v>1167987</v>
+        <v>579678</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,10 +2948,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1021</v>
+        <v>566</v>
       </c>
       <c r="D33" s="7">
-        <v>692825</v>
+        <v>365168</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2861,10 +2963,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>1701</v>
+        <v>825</v>
       </c>
       <c r="I33" s="7">
-        <v>1023329</v>
+        <v>607251</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -2876,10 +2978,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>2722</v>
+        <v>1391</v>
       </c>
       <c r="N33" s="7">
-        <v>1716153</v>
+        <v>972419</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2893,55 +2995,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D34" s="7">
-        <v>38855</v>
+        <v>4618</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="I34" s="7">
-        <v>168246</v>
+        <v>19024</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="N34" s="7">
-        <v>207101</v>
+        <v>23642</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,10 +3052,10 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D35" s="7">
-        <v>86055</v>
+        <v>4984</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>238</v>
@@ -2965,10 +3067,10 @@
         <v>240</v>
       </c>
       <c r="H35" s="7">
-        <v>311</v>
+        <v>54</v>
       </c>
       <c r="I35" s="7">
-        <v>202061</v>
+        <v>24077</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>241</v>
@@ -2977,22 +3079,22 @@
         <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
-        <v>401</v>
+        <v>63</v>
       </c>
       <c r="N35" s="7">
-        <v>288116</v>
+        <v>29061</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,49 +3103,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>552</v>
+        <v>76</v>
       </c>
       <c r="D36" s="7">
-        <v>548378</v>
+        <v>47604</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
-        <v>1389</v>
+        <v>236</v>
       </c>
       <c r="I36" s="7">
-        <v>1051167</v>
+        <v>113238</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
-        <v>1941</v>
+        <v>312</v>
       </c>
       <c r="N36" s="7">
-        <v>1599544</v>
+        <v>160842</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,49 +3154,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>2677</v>
+        <v>362</v>
       </c>
       <c r="D37" s="7">
-        <v>2699497</v>
+        <v>223873</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
-        <v>3411</v>
+        <v>550</v>
       </c>
       <c r="I37" s="7">
-        <v>2371206</v>
+        <v>267596</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
-        <v>6088</v>
+        <v>912</v>
       </c>
       <c r="N37" s="7">
-        <v>5070703</v>
+        <v>491469</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,63 +3205,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>455</v>
+      </c>
+      <c r="D38" s="7">
+        <v>281079</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>876</v>
+      </c>
+      <c r="I38" s="7">
+        <v>423935</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1331</v>
+      </c>
+      <c r="N38" s="7">
+        <v>705014</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>42</v>
+      </c>
+      <c r="D39" s="7">
+        <v>37393</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="7">
+        <v>229</v>
+      </c>
+      <c r="I39" s="7">
+        <v>151834</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M39" s="7">
+        <v>271</v>
+      </c>
+      <c r="N39" s="7">
+        <v>189227</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>90</v>
+      </c>
+      <c r="D40" s="7">
+        <v>84779</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H40" s="7">
+        <v>311</v>
+      </c>
+      <c r="I40" s="7">
+        <v>188642</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M40" s="7">
+        <v>401</v>
+      </c>
+      <c r="N40" s="7">
+        <v>273422</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>552</v>
+      </c>
+      <c r="D41" s="7">
+        <v>537582</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1389</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1140195</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1941</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1677777</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2677</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2788314</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" s="7">
+        <v>3411</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2167677</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" s="7">
+        <v>6088</v>
+      </c>
+      <c r="N42" s="7">
+        <v>4955991</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3361</v>
       </c>
-      <c r="D38" s="7">
-        <v>3372784</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3448068</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>5340</v>
       </c>
-      <c r="I38" s="7">
-        <v>3792680</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3648348</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>8701</v>
       </c>
-      <c r="N38" s="7">
-        <v>7165464</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>263</v>
+      <c r="N43" s="7">
+        <v>7096416</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
